--- a/Templates/student2.xlsx
+++ b/Templates/student2.xlsx
@@ -178,7 +178,7 @@
     <t>Niubi</t>
   </si>
   <si>
-    <t>Needs to Chill</t>
+    <t>Lau</t>
   </si>
   <si>
     <t>Yaqing</t>
@@ -249,13 +249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -276,11 +276,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -289,7 +289,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -297,17 +297,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -324,7 +324,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -332,12 +332,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -346,30 +357,34 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="15"/>
@@ -378,7 +393,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="15"/>
@@ -387,7 +447,7 @@
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,83 +456,23 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -481,7 +481,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -489,10 +489,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -503,7 +503,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -525,28 +525,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -564,97 +564,82 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,12 +662,12 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1747,7 +1732,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1865,16 +1850,19 @@
       <c r="D12" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="7"/>
       <c r="B13" t="s" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
@@ -1882,6 +1870,7 @@
       <c r="D14" t="s" s="5">
         <v>8</v>
       </c>
+      <c r="E14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1891,7 +1880,8 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'G7'!R1C1" tooltip="" display="G7"/>
-    <hyperlink ref="D12" location="'G8'!R1C1" tooltip="" display="G8"/>
+    <hyperlink ref="D12" location="'G7'!R1C1" tooltip="" display="G7"/>
+    <hyperlink ref="D14" location="'G8'!R1C1" tooltip="" display="G8"/>
     <hyperlink ref="D12" location="'G7'!R1C1" tooltip="" display="G7"/>
     <hyperlink ref="D14" location="'G8'!R1C1" tooltip="" display="G8"/>
   </hyperlinks>
@@ -2230,34 +2220,34 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2279,8 +2269,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="13" width="16.3516" style="44" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="44" customWidth="1"/>
+    <col min="1" max="13" width="16.3516" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -2328,40 +2318,40 @@
       <c r="A2" t="s" s="27">
         <v>46</v>
       </c>
-      <c r="B2" t="s" s="45">
+      <c r="B2" t="s" s="40">
         <v>47</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="41">
         <v>8</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="41">
         <v>8</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="41">
         <v>8</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="41">
         <v>8</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="41">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="47">
+      <c r="H2" t="s" s="42">
         <v>25</v>
       </c>
-      <c r="I2" t="s" s="47">
+      <c r="I2" t="s" s="42">
         <v>26</v>
       </c>
-      <c r="J2" t="s" s="47">
+      <c r="J2" t="s" s="42">
         <v>27</v>
       </c>
-      <c r="K2" t="s" s="47">
+      <c r="K2" t="s" s="42">
         <v>28</v>
       </c>
-      <c r="L2" t="s" s="47">
+      <c r="L2" t="s" s="42">
         <v>28</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="41">
         <v>3</v>
       </c>
     </row>
@@ -2369,40 +2359,40 @@
       <c r="A3" t="s" s="31">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="B3" t="s" s="43">
         <v>48</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="44">
         <v>1</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="44">
         <v>1</v>
       </c>
-      <c r="H3" t="s" s="50">
+      <c r="H3" t="s" s="45">
         <v>31</v>
       </c>
-      <c r="I3" t="s" s="50">
+      <c r="I3" t="s" s="45">
         <v>32</v>
       </c>
-      <c r="J3" t="s" s="50">
+      <c r="J3" t="s" s="45">
         <v>27</v>
       </c>
-      <c r="K3" t="s" s="50">
+      <c r="K3" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="L3" t="s" s="50">
+      <c r="L3" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2410,40 +2400,40 @@
       <c r="A4" t="s" s="31">
         <v>34</v>
       </c>
-      <c r="B4" t="s" s="48">
+      <c r="B4" t="s" s="43">
         <v>49</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="44">
         <v>3</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="44">
         <v>3</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="44">
         <v>4</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="44">
         <v>8</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="44">
         <v>5</v>
       </c>
-      <c r="H4" t="s" s="50">
+      <c r="H4" t="s" s="45">
         <v>31</v>
       </c>
-      <c r="I4" t="s" s="50">
+      <c r="I4" t="s" s="45">
         <v>26</v>
       </c>
-      <c r="J4" t="s" s="50">
+      <c r="J4" t="s" s="45">
         <v>32</v>
       </c>
-      <c r="K4" t="s" s="50">
+      <c r="K4" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="L4" t="s" s="50">
+      <c r="L4" t="s" s="45">
         <v>28</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="44">
         <v>1</v>
       </c>
     </row>
@@ -2451,40 +2441,40 @@
       <c r="A5" t="s" s="31">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="48">
+      <c r="B5" t="s" s="43">
         <v>37</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="44">
         <v>2</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="44">
         <v>1</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="44">
         <v>2</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="44">
         <v>5</v>
       </c>
-      <c r="H5" t="s" s="50">
+      <c r="H5" t="s" s="45">
         <v>31</v>
       </c>
-      <c r="I5" t="s" s="50">
+      <c r="I5" t="s" s="45">
         <v>32</v>
       </c>
-      <c r="J5" t="s" s="50">
+      <c r="J5" t="s" s="45">
         <v>27</v>
       </c>
-      <c r="K5" t="s" s="50">
+      <c r="K5" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="L5" t="s" s="50">
+      <c r="L5" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="44">
         <v>2</v>
       </c>
     </row>
@@ -2492,40 +2482,40 @@
       <c r="A6" t="s" s="31">
         <v>50</v>
       </c>
-      <c r="B6" t="s" s="48">
+      <c r="B6" t="s" s="43">
         <v>40</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="44">
         <v>7</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="44">
         <v>6</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="44">
         <v>7</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="44">
         <v>8</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="44">
         <v>7</v>
       </c>
-      <c r="H6" t="s" s="50">
+      <c r="H6" t="s" s="45">
         <v>25</v>
       </c>
-      <c r="I6" t="s" s="50">
+      <c r="I6" t="s" s="45">
         <v>27</v>
       </c>
-      <c r="J6" t="s" s="50">
+      <c r="J6" t="s" s="45">
         <v>32</v>
       </c>
-      <c r="K6" t="s" s="50">
+      <c r="K6" t="s" s="45">
         <v>41</v>
       </c>
-      <c r="L6" t="s" s="50">
+      <c r="L6" t="s" s="45">
         <v>42</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="44">
         <v>3</v>
       </c>
     </row>
@@ -2533,40 +2523,40 @@
       <c r="A7" t="s" s="31">
         <v>51</v>
       </c>
-      <c r="B7" t="s" s="48">
+      <c r="B7" t="s" s="43">
         <v>44</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="44">
         <v>6</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="44">
         <v>8</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="44">
         <v>8</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="44">
         <v>7</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="44">
         <v>7</v>
       </c>
-      <c r="H7" t="s" s="50">
+      <c r="H7" t="s" s="45">
         <v>25</v>
       </c>
-      <c r="I7" t="s" s="50">
+      <c r="I7" t="s" s="45">
         <v>45</v>
       </c>
-      <c r="J7" t="s" s="50">
+      <c r="J7" t="s" s="45">
         <v>32</v>
       </c>
-      <c r="K7" t="s" s="50">
+      <c r="K7" t="s" s="45">
         <v>41</v>
       </c>
-      <c r="L7" t="s" s="50">
+      <c r="L7" t="s" s="45">
         <v>41</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="44">
         <v>3</v>
       </c>
     </row>
@@ -2586,34 +2576,34 @@
       <c r="M8" s="37"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/Templates/student2.xlsx
+++ b/Templates/student2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Jessie</t>
   </si>
   <si>
-    <t>Wu</t>
+    <t>Wong</t>
   </si>
   <si>
     <t>F</t>
@@ -133,13 +133,13 @@
     <t>BE</t>
   </si>
   <si>
-    <t>Uzen</t>
+    <t>Samantha</t>
   </si>
   <si>
     <t>Huang</t>
   </si>
   <si>
-    <t>Edwin</t>
+    <t>Edward</t>
   </si>
   <si>
     <t>Kung</t>
@@ -148,7 +148,7 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>Irina</t>
+    <t>Irene</t>
   </si>
   <si>
     <t>Qiu</t>
@@ -160,7 +160,7 @@
     <t>ME</t>
   </si>
   <si>
-    <t xml:space="preserve">Jessie </t>
+    <t xml:space="preserve">Jessica </t>
   </si>
   <si>
     <t>Chen</t>
@@ -169,19 +169,31 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Udit</t>
-  </si>
-  <si>
-    <t>Vyas</t>
-  </si>
-  <si>
-    <t>Niubi</t>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Hyun</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t>Lau</t>
   </si>
   <si>
-    <t>Yaqing</t>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Weng</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Zhong</t>
   </si>
   <si>
     <t>Iris</t>
@@ -2398,10 +2410,10 @@
     </row>
     <row r="4" ht="14.7" customHeight="1">
       <c r="A4" t="s" s="31">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="43">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="44">
         <v>3</v>
@@ -2439,10 +2451,10 @@
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" t="s" s="31">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="43">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C5" s="44">
         <v>1</v>
@@ -2480,10 +2492,10 @@
     </row>
     <row r="6" ht="14.7" customHeight="1">
       <c r="A6" t="s" s="31">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s" s="43">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C6" s="44">
         <v>7</v>
@@ -2521,7 +2533,7 @@
     </row>
     <row r="7" ht="14.7" customHeight="1">
       <c r="A7" t="s" s="31">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="43">
         <v>44</v>
